--- a/IDP-Bios.xlsx
+++ b/IDP-Bios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malekshafei/Desktop/Louisville/Coastal-IDP-Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFF16D7-C900-CA40-85F8-4DD025CFEA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F408B3B-4787-4745-94E8-1545E86DD68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12920" yWindow="-820" windowWidth="13220" windowHeight="14940" xr2:uid="{1AAF5619-2C61-6048-80AB-717488016C8F}"/>
+    <workbookView xWindow="-13220" yWindow="-820" windowWidth="13220" windowHeight="14940" xr2:uid="{1AAF5619-2C61-6048-80AB-717488016C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -412,9 +412,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -734,7 +733,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,7 +776,7 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -800,7 +799,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -821,7 +820,7 @@
       <c r="H2" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -847,7 +846,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -868,7 +867,7 @@
       <c r="H3" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
@@ -894,7 +893,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -915,7 +914,7 @@
       <c r="H4" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>1</v>
       </c>
       <c r="J4" t="s">
@@ -941,7 +940,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -962,7 +961,7 @@
       <c r="H5" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
@@ -988,7 +987,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1009,7 +1008,7 @@
       <c r="H6" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>3</v>
       </c>
       <c r="J6" t="s">
@@ -1035,7 +1034,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1056,7 +1055,7 @@
       <c r="H7" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>4</v>
       </c>
       <c r="J7" t="s">
@@ -1082,7 +1081,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1103,7 +1102,7 @@
       <c r="H8" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>5</v>
       </c>
       <c r="J8" t="s">
@@ -1129,7 +1128,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1150,7 +1149,7 @@
       <c r="H9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>6</v>
       </c>
       <c r="J9" t="s">
@@ -1176,7 +1175,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1197,7 +1196,7 @@
       <c r="H10" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>7</v>
       </c>
       <c r="J10" t="s">
@@ -1223,7 +1222,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1244,7 +1243,7 @@
       <c r="H11" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>8</v>
       </c>
       <c r="J11" t="s">
@@ -1270,7 +1269,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1291,7 +1290,7 @@
       <c r="H12" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>9</v>
       </c>
       <c r="J12" t="s">
@@ -1317,7 +1316,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1338,7 +1337,7 @@
       <c r="H13" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>11</v>
       </c>
       <c r="J13" t="s">
@@ -1364,7 +1363,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1385,7 +1384,7 @@
       <c r="H14" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>12</v>
       </c>
       <c r="J14" t="s">
@@ -1411,7 +1410,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1432,7 +1431,7 @@
       <c r="H15" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>13</v>
       </c>
       <c r="J15" t="s">
@@ -1458,7 +1457,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1479,7 +1478,7 @@
       <c r="H16" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>14</v>
       </c>
       <c r="J16" t="s">
@@ -1505,7 +1504,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1526,7 +1525,7 @@
       <c r="H17" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>15</v>
       </c>
       <c r="J17" t="s">
@@ -1552,7 +1551,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1573,7 +1572,7 @@
       <c r="H18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>16</v>
       </c>
       <c r="J18" t="s">
@@ -1599,7 +1598,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1620,7 +1619,7 @@
       <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>17</v>
       </c>
       <c r="J19" t="s">
@@ -1646,7 +1645,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1667,7 +1666,7 @@
       <c r="H20" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>18</v>
       </c>
       <c r="J20" t="s">
@@ -1693,7 +1692,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1714,7 +1713,7 @@
       <c r="H21" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>20</v>
       </c>
       <c r="J21" t="s">
@@ -1740,7 +1739,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1761,7 +1760,7 @@
       <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>21</v>
       </c>
       <c r="J22" t="s">
@@ -1769,7 +1768,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1790,7 +1789,7 @@
       <c r="H23" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>23</v>
       </c>
       <c r="J23" t="s">
@@ -1798,7 +1797,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1819,7 +1818,7 @@
       <c r="H24" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>24</v>
       </c>
       <c r="J24" t="s">
@@ -1827,7 +1826,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1848,7 +1847,7 @@
       <c r="H25" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>26</v>
       </c>
       <c r="J25" t="s">
@@ -1856,7 +1855,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1877,7 +1876,7 @@
       <c r="H26" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>29</v>
       </c>
       <c r="J26" t="s">
@@ -1885,7 +1884,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1906,7 +1905,7 @@
       <c r="H27" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>34</v>
       </c>
       <c r="J27" t="s">
